--- a/CoordinateConverterGUI/CoordinateConverter/ss.xlsx
+++ b/CoordinateConverterGUI/CoordinateConverter/ss.xlsx
@@ -375,15 +375,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A3" activeCellId="1" sqref="A2 A3:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>5654</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>757</v>
@@ -394,7 +394,8 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>456</v>
+        <f>A1+1</f>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>411</v>
@@ -405,7 +406,8 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>24</v>
+        <f t="shared" ref="A3:A66" si="0">A2+1</f>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>444</v>
@@ -416,7 +418,8 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>47242</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>426</v>
@@ -427,7 +430,8 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7547</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>454</v>
@@ -438,7 +442,8 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>27356.2</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>321.10000000000002</v>
@@ -449,7 +454,8 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>32413.4</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>262</v>
@@ -460,7 +466,8 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>37470.6</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>202.9</v>
@@ -471,7 +478,8 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>42527.8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>143.80000000000001</v>
@@ -482,7 +490,8 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>47585</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>84.7</v>
@@ -493,7 +502,8 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>52642.2</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>25.6</v>
@@ -504,7 +514,8 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>57699.4</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>-33.5</v>
@@ -515,7 +526,8 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>62756.6</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>-92.6</v>
@@ -526,7 +538,8 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>67813.8</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>-151.69999999999999</v>
@@ -537,7 +550,8 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>72871</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>-210.8</v>
@@ -548,7 +562,8 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>77928.2</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>-269.89999999999998</v>
@@ -559,7 +574,8 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>82985.399999999994</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>-329</v>
@@ -570,7 +586,8 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>88042.6</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>-388.1</v>
@@ -581,7 +598,8 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>93099.8</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>-447.2</v>
@@ -592,7 +610,8 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>98157</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>-506.3</v>
@@ -603,7 +622,8 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>103214.2</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>-565.4</v>
@@ -614,7 +634,8 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>108271.4</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>-624.5</v>
@@ -625,7 +646,8 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>113328.6</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>-683.6</v>
@@ -636,7 +658,8 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>118385.8</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>-742.7</v>
@@ -647,7 +670,8 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>123443</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>-801.8</v>
@@ -658,7 +682,8 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>128500.2</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>-860.9</v>
@@ -669,7 +694,8 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>133557.4</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>-920</v>
@@ -680,7 +706,8 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>138614.6</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>-979.1</v>
@@ -691,7 +718,8 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>143671.79999999999</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>-1038.2</v>
@@ -702,7 +730,8 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>148729</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>-1097.3</v>
@@ -713,7 +742,8 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>153786.20000000001</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>-1156.4000000000001</v>
@@ -724,7 +754,8 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>158843.4</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>-1215.5</v>
@@ -735,7 +766,8 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>163900.6</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>-1274.5999999999999</v>
@@ -746,7 +778,8 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>168957.8</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>-1333.7</v>
@@ -757,7 +790,8 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>174015</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>-1392.8</v>
@@ -768,7 +802,8 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>179072.2</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>-1451.9</v>
@@ -779,7 +814,8 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>184129.4</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>-1511</v>
@@ -790,7 +826,8 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>189186.6</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>-1570.1</v>
@@ -801,7 +838,8 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>194243.8</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>-1629.2</v>
@@ -812,7 +850,8 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>199301</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>-1688.3</v>
@@ -823,7 +862,8 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>204358.2</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>-1747.4</v>
@@ -834,7 +874,8 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>209415.4</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>-1806.5</v>
@@ -845,7 +886,8 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>214472.6</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>-1865.6</v>
@@ -856,7 +898,8 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>219529.8</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>-1924.7</v>
@@ -867,7 +910,8 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>224587</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>-1983.8</v>
@@ -878,7 +922,8 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>229644.2</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>-2042.9</v>
@@ -889,7 +934,8 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>234701.4</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>-2102</v>
@@ -900,7 +946,8 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>239758.6</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>-2161.1</v>
@@ -911,7 +958,8 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>244815.8</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>-2220.1999999999998</v>
@@ -922,7 +970,8 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>249873</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>-2279.3000000000002</v>
@@ -933,7 +982,8 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>254930.2</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>-2338.4</v>
@@ -944,7 +994,8 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>259987.4</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>-2397.5</v>
@@ -955,7 +1006,8 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>265044.59999999998</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>-2456.6</v>
@@ -966,7 +1018,8 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>270101.8</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>-2515.6999999999998</v>
@@ -977,7 +1030,8 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>275159</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>-2574.8000000000002</v>
@@ -988,7 +1042,8 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>280216.2</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>-2633.9</v>
@@ -999,7 +1054,8 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>285273.40000000002</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>-2693</v>
@@ -1010,7 +1066,8 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>290330.59999999998</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>-2752.1</v>
@@ -1021,7 +1078,8 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>295387.8</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>-2811.2</v>
@@ -1032,7 +1090,8 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>300445</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>-2870.3</v>
@@ -1043,7 +1102,8 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>305502.2</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>-2929.4</v>
@@ -1054,7 +1114,8 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>310559.40000000002</v>
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>-2988.5</v>
@@ -1065,7 +1126,8 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>315616.59999999998</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>-3047.6</v>
@@ -1076,7 +1138,8 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>320673.8</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>-3106.7</v>
@@ -1087,7 +1150,8 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>325731</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>-3165.8</v>
@@ -1098,7 +1162,8 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>330788.2</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>-3224.9</v>
@@ -1109,7 +1174,8 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>335845.4</v>
+        <f t="shared" ref="A67:A100" si="1">A66+1</f>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>-3284</v>
@@ -1120,7 +1186,8 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>340902.6</v>
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>-3343.1</v>
@@ -1131,7 +1198,8 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>345959.8</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>-3402.2</v>
@@ -1142,7 +1210,8 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>351017</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>-3461.3</v>
@@ -1153,7 +1222,8 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>356074.2</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>-3520.4</v>
@@ -1164,7 +1234,8 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>361131.4</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>-3579.5</v>
@@ -1175,7 +1246,8 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>366188.6</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>-3638.6</v>
@@ -1186,7 +1258,8 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>371245.8</v>
+        <f t="shared" si="1"/>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>-3697.7</v>
@@ -1197,7 +1270,8 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>376303</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>-3756.8</v>
@@ -1208,7 +1282,8 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>381360.2</v>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>-3815.9</v>
@@ -1219,7 +1294,8 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>386417.4</v>
+        <f t="shared" si="1"/>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>-3875</v>
@@ -1230,7 +1306,8 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>391474.6</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>-3934.1</v>
@@ -1241,7 +1318,8 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>396531.8</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>-3993.2</v>
@@ -1252,7 +1330,8 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>401589</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>-4052.3</v>
@@ -1263,7 +1342,8 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>406646.2</v>
+        <f t="shared" si="1"/>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>-4111.3999999999996</v>
@@ -1274,7 +1354,8 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>411703.4</v>
+        <f t="shared" si="1"/>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>-4170.5</v>
@@ -1285,7 +1366,8 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>416760.6</v>
+        <f t="shared" si="1"/>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>-4229.6000000000004</v>
@@ -1296,7 +1378,8 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>421817.8</v>
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>-4288.7</v>
@@ -1307,7 +1390,8 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>426875</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>-4347.8</v>
@@ -1318,7 +1402,8 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>431932.2</v>
+        <f t="shared" si="1"/>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>-4406.8999999999996</v>
@@ -1329,7 +1414,8 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>436989.4</v>
+        <f t="shared" si="1"/>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>-4466</v>
@@ -1340,7 +1426,8 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>442046.6</v>
+        <f t="shared" si="1"/>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>-4525.1000000000004</v>
@@ -1351,7 +1438,8 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>447103.8</v>
+        <f t="shared" si="1"/>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>-4584.2</v>
@@ -1362,7 +1450,8 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>452161</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>-4643.3</v>
@@ -1373,7 +1462,8 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>457218.2</v>
+        <f t="shared" si="1"/>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>-4702.3999999999996</v>
@@ -1384,7 +1474,8 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>462275.4</v>
+        <f t="shared" si="1"/>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>-4761.5</v>
@@ -1395,7 +1486,8 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>467332.6</v>
+        <f t="shared" si="1"/>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>-4820.6000000000004</v>
@@ -1406,7 +1498,8 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>472389.8</v>
+        <f t="shared" si="1"/>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>-4879.7</v>
@@ -1417,7 +1510,8 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>477447</v>
+        <f t="shared" si="1"/>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>-4938.8</v>
@@ -1428,7 +1522,8 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>482504.2</v>
+        <f t="shared" si="1"/>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>-4997.8999999999996</v>
@@ -1439,7 +1534,8 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>487561.4</v>
+        <f t="shared" si="1"/>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>-5057</v>
@@ -1450,7 +1546,8 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>492618.6</v>
+        <f t="shared" si="1"/>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>-5116.1000000000004</v>
@@ -1461,7 +1558,8 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>497675.8</v>
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>-5175.2</v>
@@ -1472,7 +1570,8 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>502733</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>-5234.3</v>
